--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H2">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I2">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J2">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N2">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q2">
-        <v>82.31923939158112</v>
+        <v>68.88127975796901</v>
       </c>
       <c r="R2">
-        <v>740.87315452423</v>
+        <v>619.9315178217211</v>
       </c>
       <c r="S2">
-        <v>0.2493724616530678</v>
+        <v>0.485105370131214</v>
       </c>
       <c r="T2">
-        <v>0.2493724616530678</v>
+        <v>0.4851053701312139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H3">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I3">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J3">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q3">
-        <v>12.75217845064944</v>
+        <v>19.979627231305</v>
       </c>
       <c r="R3">
-        <v>114.769606055845</v>
+        <v>179.816645081745</v>
       </c>
       <c r="S3">
-        <v>0.03863060634647802</v>
+        <v>0.1407091229602856</v>
       </c>
       <c r="T3">
-        <v>0.03863060634647802</v>
+        <v>0.1407091229602856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H4">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I4">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J4">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N4">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q4">
-        <v>12.05462885916178</v>
+        <v>25.28102009401501</v>
       </c>
       <c r="R4">
-        <v>108.491659732456</v>
+        <v>227.529180846135</v>
       </c>
       <c r="S4">
-        <v>0.03651749572932427</v>
+        <v>0.1780448715978301</v>
       </c>
       <c r="T4">
-        <v>0.03651749572932427</v>
+        <v>0.1780448715978301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H5">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I5">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J5">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N5">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q5">
-        <v>128.97464722387</v>
+        <v>16.80694231628622</v>
       </c>
       <c r="R5">
-        <v>1160.77182501483</v>
+        <v>151.262480846576</v>
       </c>
       <c r="S5">
-        <v>0.3907072697314281</v>
+        <v>0.1183650768650642</v>
       </c>
       <c r="T5">
-        <v>0.3907072697314279</v>
+        <v>0.1183650768650641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H6">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I6">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J6">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q6">
-        <v>19.979627231305</v>
+        <v>4.87500295519111</v>
       </c>
       <c r="R6">
-        <v>179.816645081745</v>
+        <v>43.87502659672</v>
       </c>
       <c r="S6">
-        <v>0.0605249618728954</v>
+        <v>0.03433284226539283</v>
       </c>
       <c r="T6">
-        <v>0.06052496187289539</v>
+        <v>0.03433284226539282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H7">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I7">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J7">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N7">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q7">
-        <v>18.886733113864</v>
+        <v>6.168535891173334</v>
       </c>
       <c r="R7">
-        <v>169.980598024776</v>
+        <v>55.51682302056</v>
       </c>
       <c r="S7">
-        <v>0.05721422068521272</v>
+        <v>0.04344271618021328</v>
       </c>
       <c r="T7">
-        <v>0.0572142206852127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.227394</v>
-      </c>
-      <c r="H8">
-        <v>3.682182</v>
-      </c>
-      <c r="I8">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J8">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>34.52052333333334</v>
-      </c>
-      <c r="N8">
-        <v>103.56157</v>
-      </c>
-      <c r="O8">
-        <v>0.7684334662422597</v>
-      </c>
-      <c r="P8">
-        <v>0.7684334662422597</v>
-      </c>
-      <c r="Q8">
-        <v>42.37028321619334</v>
-      </c>
-      <c r="R8">
-        <v>381.33254894574</v>
-      </c>
-      <c r="S8">
-        <v>0.1283537348577639</v>
-      </c>
-      <c r="T8">
-        <v>0.1283537348577639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.227394</v>
-      </c>
-      <c r="H9">
-        <v>3.682182</v>
-      </c>
-      <c r="I9">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J9">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.347618333333333</v>
-      </c>
-      <c r="N9">
-        <v>16.042855</v>
-      </c>
-      <c r="O9">
-        <v>0.1190390091234805</v>
-      </c>
-      <c r="P9">
-        <v>0.1190390091234805</v>
-      </c>
-      <c r="Q9">
-        <v>6.563634656623334</v>
-      </c>
-      <c r="R9">
-        <v>59.07271190961</v>
-      </c>
-      <c r="S9">
-        <v>0.01988344090410711</v>
-      </c>
-      <c r="T9">
-        <v>0.01988344090410711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.227394</v>
-      </c>
-      <c r="H10">
-        <v>3.682182</v>
-      </c>
-      <c r="I10">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J10">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.055101333333334</v>
-      </c>
-      <c r="N10">
-        <v>15.165304</v>
-      </c>
-      <c r="O10">
-        <v>0.1125275246342597</v>
-      </c>
-      <c r="P10">
-        <v>0.1125275246342597</v>
-      </c>
-      <c r="Q10">
-        <v>6.204601045925335</v>
-      </c>
-      <c r="R10">
-        <v>55.841409413328</v>
-      </c>
-      <c r="S10">
-        <v>0.01879580821972269</v>
-      </c>
-      <c r="T10">
-        <v>0.01879580821972269</v>
+        <v>0.04344271618021327</v>
       </c>
     </row>
   </sheetData>
